--- a/xls/AVČR-Centrum výzkumu globální změny AV ČR, v. v. i._Predatory.xlsx
+++ b/xls/AVČR-Centrum výzkumu globální změny AV ČR, v. v. i._Predatory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>YEAR</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>VO</t>
+  </si>
+  <si>
+    <t>CATEGORY_RIV_SHORT</t>
+  </si>
+  <si>
+    <t>Record_FOS_category</t>
   </si>
 </sst>
 </file>
@@ -428,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,7 +445,7 @@
     <col min="8" max="8" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,6 +502,12 @@
       </c>
       <c r="S1" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
